--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\Exel2Json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E66E99-B415-4D42-B8AB-37FF6C8F77E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AF443-3E2B-4A36-A622-46C50FCB5F30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,54 @@
   </si>
   <si>
     <t>#dialogTable[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트3 줄께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트3진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트3 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_1 상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_2 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_2 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_1 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_1 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_2 상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_3 상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_3 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_3 하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +715,7 @@
     </row>
     <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>1001</v>
+        <v>2000</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -696,7 +744,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>1101</v>
+        <v>3001</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -723,7 +771,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>1201</v>
+        <v>3002</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -748,7 +796,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>1301</v>
+        <v>3003</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -820,242 +868,471 @@
         <v>106</v>
       </c>
     </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2002</v>
+      </c>
+      <c r="C10">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>108</v>
+      </c>
+      <c r="E10">
+        <v>109</v>
+      </c>
+    </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
+      <c r="B11">
+        <v>3001</v>
+      </c>
+      <c r="C11">
+        <v>110</v>
+      </c>
+      <c r="D11">
+        <v>111</v>
+      </c>
+      <c r="E11">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
+        <v>3002</v>
+      </c>
+      <c r="C12">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>102</v>
+        <v>3003</v>
       </c>
       <c r="C13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>103</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>117</v>
+      </c>
+      <c r="E13">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>104</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>102</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>103</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>104</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>107</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>109</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>111</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>112</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>113</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>114</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>115</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>116</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>117</v>
+      </c>
+      <c r="C32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>118</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19">
+    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C19">
-        <v>1001</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C36">
+        <v>1001</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20">
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C37">
         <v>1000</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C38">
         <v>1000</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22">
+    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>1001</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C39">
+        <v>1001</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>1001</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C40">
+        <v>1001</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>1001</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C41">
+        <v>1001</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42">
         <v>7</v>
       </c>
-      <c r="C25">
-        <v>1001</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C42">
+        <v>1001</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43">
         <v>8</v>
       </c>
-      <c r="C26">
-        <v>1000</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C43">
+        <v>1001</v>
+      </c>
+      <c r="D43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44">
         <v>9</v>
       </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C44">
+        <v>1001</v>
+      </c>
+      <c r="D44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45">
         <v>10</v>
       </c>
-      <c r="C28">
-        <v>1000</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C45">
+        <v>1001</v>
+      </c>
+      <c r="D45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>1001</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>1001</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>1000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>1000</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>1000</v>
-      </c>
-      <c r="D33" t="s">
-        <v>37</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>1001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>1001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>1001</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>1001</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>1001</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>1001</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>1001</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>1001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>1001</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>1001</v>
+      </c>
+      <c r="D55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>1001</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <v>1001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\Exel2Json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AF443-3E2B-4A36-A622-46C50FCB5F30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4050BA-BFE5-4A83-A741-C69ECBF94F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="17070" yWindow="1590" windowWidth="21555" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,14 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어서 퀘스트를 마무리 해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더는 할 일이 없어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#questTable[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,75 +162,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>퀘스트2완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scriptId[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#dialogTable[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트3 줄께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트3진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트3 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_1 상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_2 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_2 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_1 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_1 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_2 상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_3 상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_3 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_3 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2,4,3,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트2완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트2진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트2 줄께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scriptId[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#dialogTable[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트3 줄께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트3진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트3 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_1 상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_2 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_2 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_1 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_1 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_2 상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_3 상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_3 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_3 하</t>
+    <t>스승님, 무지르고 돌아왔습니다.(드랍아이템을 보여줌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 녀석이 이 물건을 들고 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 잘 모르는 물건이구나..이 물건에 대해 알만한 녀석을 하나 알지. ㅇㅇㅇ으로 가보렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 부탁한 임무는 아직이니?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,14 +664,14 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="60.75" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="9" max="9" width="39.875" customWidth="1"/>
@@ -825,19 +829,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -848,7 +852,7 @@
         <v>101</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>103</v>
@@ -859,13 +863,13 @@
         <v>2001</v>
       </c>
       <c r="C9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>105</v>
       </c>
       <c r="E9">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -873,13 +877,13 @@
         <v>2002</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -890,10 +894,10 @@
         <v>110</v>
       </c>
       <c r="D11">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E11">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -904,10 +908,10 @@
         <v>113</v>
       </c>
       <c r="D12">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -918,45 +922,45 @@
         <v>116</v>
       </c>
       <c r="D13">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E13">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>101</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
+      <c r="C16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>102</v>
       </c>
-      <c r="C17">
-        <v>6</v>
+      <c r="C17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>103</v>
       </c>
-      <c r="C18">
-        <v>7</v>
+      <c r="C18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -1081,16 +1085,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1153,10 +1157,10 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1164,10 +1168,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1178,7 +1182,7 @@
         <v>1001</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1189,7 +1193,7 @@
         <v>1001</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,7 +1204,7 @@
         <v>1001</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,7 +1215,7 @@
         <v>1001</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1222,7 +1226,7 @@
         <v>1001</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1233,7 +1237,7 @@
         <v>1001</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -1244,7 +1248,7 @@
         <v>1001</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -1255,7 +1259,7 @@
         <v>1001</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1266,7 +1270,7 @@
         <v>1001</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -1277,7 +1281,7 @@
         <v>1001</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1288,7 +1292,7 @@
         <v>1001</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1299,7 +1303,7 @@
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1310,7 +1314,7 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1321,7 +1325,7 @@
         <v>1001</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1332,7 +1336,7 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4050BA-BFE5-4A83-A741-C69ECBF94F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0793204-6434-43C3-B932-92CCC5CD5797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17070" yWindow="1590" windowWidth="21555" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>왔구나,지금부터 모험을 시작하자,우선 방향키를 사용해 움직여보렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isNPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <t>스승님, 이제 분부하신 훈련을 마쳤습니다.</t>
   </si>
   <si>
-    <t>잘 했다. 제자야, 외부 훈련을 마치고 나니 네가 더욱 강해진 것 같구나. 하지만 이제부터가 진정한 수련이다.,네가 해야할 일이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무슨 일이 있는 건가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +235,22 @@
   </si>
   <si>
     <t>내가 부탁한 임무는 아직이니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왔구나, 지금부터 모험을 시작하자, 우선 방향키를 사용해 움직여보렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 했다. 제자야, 외부 훈련을 마치고 나니 네가 더욱 강해진 것 같구나. 하지만 이제부터가 진정한 수련이다.네가 해야할 일이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -695,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -704,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -725,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -754,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -781,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -806,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -829,19 +837,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -930,21 +938,21 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>101</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -952,7 +960,7 @@
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -960,7 +968,7 @@
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -1085,19 +1093,19 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>1001</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1116,7 +1124,7 @@
         <v>1000</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,7 +1135,7 @@
         <v>1000</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1138,7 +1146,7 @@
         <v>1001</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,7 +1157,7 @@
         <v>1001</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,7 +1168,7 @@
         <v>1000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,7 +1179,7 @@
         <v>1000</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,7 +1190,7 @@
         <v>1001</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,7 +1201,7 @@
         <v>1001</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1204,7 +1212,7 @@
         <v>1001</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,7 +1223,7 @@
         <v>1001</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,7 +1234,7 @@
         <v>1001</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,7 +1245,7 @@
         <v>1001</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -1248,7 +1256,7 @@
         <v>1001</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -1259,7 +1267,7 @@
         <v>1001</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1270,7 +1278,7 @@
         <v>1001</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -1281,7 +1289,7 @@
         <v>1001</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1292,7 +1300,7 @@
         <v>1001</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1303,7 +1311,7 @@
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1314,7 +1322,7 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1325,7 +1333,7 @@
         <v>1001</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1336,7 +1344,18 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>1000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0793204-6434-43C3-B932-92CCC5CD5797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F254B92-CA98-434E-8D85-F9B925BA79A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="13875" yWindow="3210" windowWidth="21555" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트2완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scriptId[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트3 줄께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트3진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +243,18 @@
   </si>
   <si>
     <t>1,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇ씨 맞으시죠, 괜찮으신가요? ㅇㅇ씨께 여쭈어보고싶은게 있어서 왔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언젠간 네가 찾아올 줄 알았지. 그건 [왕가이름] 왕가의 인장이란다.(쿨럭), 하아…내게 남은 시간이 얼마 남지 않은 것 같으니 이 일기를 확인해보렴(죽음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -783,7 +787,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -896,10 +900,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="C11">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11">
         <v>105</v>
@@ -910,7 +914,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>3002</v>
+        <v>2004</v>
       </c>
       <c r="C12">
         <v>113</v>
@@ -924,7 +928,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>3003</v>
+        <v>2005</v>
       </c>
       <c r="C13">
         <v>116</v>
@@ -944,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -952,7 +956,7 @@
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -960,7 +964,7 @@
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -968,15 +972,15 @@
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>104</v>
       </c>
-      <c r="C19">
-        <v>8</v>
+      <c r="C19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -1093,7 +1097,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -1113,7 +1117,7 @@
         <v>1001</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1146,7 +1150,7 @@
         <v>1001</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,7 +1172,7 @@
         <v>1000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1179,7 +1183,7 @@
         <v>1000</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,7 +1194,7 @@
         <v>1001</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,7 +1205,7 @@
         <v>1001</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,7 +1227,7 @@
         <v>1001</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1234,7 +1238,7 @@
         <v>1001</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,7 +1249,7 @@
         <v>1001</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -1256,7 +1260,7 @@
         <v>1001</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -1267,7 +1271,7 @@
         <v>1001</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1278,7 +1282,7 @@
         <v>1001</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -1289,7 +1293,7 @@
         <v>1001</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1300,7 +1304,7 @@
         <v>1001</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1311,7 +1315,7 @@
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1322,7 +1326,7 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1333,7 +1337,7 @@
         <v>1001</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1344,7 +1348,7 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1355,7 +1359,7 @@
         <v>1000</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F254B92-CA98-434E-8D85-F9B925BA79A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D3097-759D-49D8-9D21-A7BEEE73CACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="3210" windowWidth="21555" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -900,7 +900,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>2003</v>
+        <v>3001</v>
       </c>
       <c r="C11">
         <v>104</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>2004</v>
+        <v>3003</v>
       </c>
       <c r="C12">
         <v>113</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>2005</v>
+        <v>3004</v>
       </c>
       <c r="C13">
         <v>116</v>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D3097-759D-49D8-9D21-A7BEEE73CACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB355E-B9EE-4297-8F19-CCE42D8E0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
@@ -63,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공체력회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이건형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#NPCInfos[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트3진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트3 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,11 +234,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언젠간 네가 찾아올 줄 알았지. 그건 [왕가이름] 왕가의 인장이란다.(쿨럭), 하아…내게 남은 시간이 얼마 남지 않은 것 같으니 이 일기를 확인해보렴(죽음)</t>
+    <t>스승의 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언젠간 네가 찾아올 줄 알았지. 그건 [왕가이름] 왕가의 인장이란다.(쿨럭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아…내게 남은 시간이 얼마 남지 않은 것 같으니 이 일기를 확인해보렴(죽음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,7 +698,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -716,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -812,19 +812,19 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -841,19 +841,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="C11">
         <v>104</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="C12">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>105</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C13">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>105</v>
@@ -940,426 +940,426 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>101</v>
       </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17">
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>104</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>105</v>
       </c>
-      <c r="C20">
+      <c r="C27">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>106</v>
       </c>
-      <c r="C21">
+      <c r="C28">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>107</v>
       </c>
-      <c r="C22">
+      <c r="C29">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>108</v>
       </c>
-      <c r="C23">
+      <c r="C30">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>109</v>
       </c>
-      <c r="C24">
+      <c r="C31">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>110</v>
       </c>
-      <c r="C25">
+      <c r="C32">
         <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>111</v>
-      </c>
-      <c r="C26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>112</v>
-      </c>
-      <c r="C27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>113</v>
-      </c>
-      <c r="C28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>114</v>
-      </c>
-      <c r="C29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>115</v>
-      </c>
-      <c r="C30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>116</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>117</v>
-      </c>
-      <c r="C32">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>112</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
+      <c r="B35">
+        <v>113</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C36">
-        <v>1001</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="C37">
-        <v>1000</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="C38">
-        <v>1000</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C39">
-        <v>1001</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C40">
-        <v>1001</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>1000</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>1000</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>47</v>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>1001</v>
       </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>1001</v>
-      </c>
-      <c r="D44" t="s">
-        <v>50</v>
+        <v>1000</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>1000</v>
       </c>
-      <c r="D45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>1001</v>
       </c>
-      <c r="D46" t="s">
-        <v>57</v>
+      <c r="D46" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>1001</v>
       </c>
-      <c r="D47" t="s">
-        <v>34</v>
+      <c r="D47" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>1001</v>
-      </c>
-      <c r="D48" t="s">
-        <v>35</v>
+        <v>1000</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>1001</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
+        <v>1000</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>1001</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>1001</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>1001</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>1001</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>1001</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>1001</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>1001</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>1001</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>1001</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>1001</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>1001</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
         <v>23</v>
       </c>
-      <c r="C58">
+      <c r="C65">
         <v>1000</v>
       </c>
-      <c r="D58" t="s">
-        <v>53</v>
+      <c r="D65" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB355E-B9EE-4297-8F19-CCE42D8E0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0C792E-A9E2-4B1C-B7B9-9942C649A20E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>퀘스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서오거라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,136 +764,122 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>3003</v>
+        <v>4000</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>3004</v>
+        <v>5000</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="I7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8">
-        <v>101</v>
-      </c>
-      <c r="D8">
-        <v>105</v>
-      </c>
-      <c r="E8">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E9">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>105</v>
@@ -900,10 +890,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>3004</v>
+        <v>2002</v>
       </c>
       <c r="C11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>105</v>
@@ -914,10 +904,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <v>105</v>
@@ -928,10 +918,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>3003</v>
+        <v>2004</v>
       </c>
       <c r="C13">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D13">
         <v>105</v>
@@ -940,426 +930,557 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2005</v>
+      </c>
+      <c r="C14">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>105</v>
+      </c>
+      <c r="E14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2006</v>
+      </c>
+      <c r="C15">
+        <v>113</v>
+      </c>
+      <c r="D15">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2007</v>
+      </c>
+      <c r="C16">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>105</v>
+      </c>
+      <c r="E16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2008</v>
+      </c>
+      <c r="C17">
+        <v>113</v>
+      </c>
+      <c r="D17">
+        <v>105</v>
+      </c>
+      <c r="E17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2009</v>
+      </c>
+      <c r="C18">
+        <v>113</v>
+      </c>
+      <c r="D18">
+        <v>105</v>
+      </c>
+      <c r="E18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3000</v>
+      </c>
+      <c r="C19">
+        <v>104</v>
+      </c>
+      <c r="D19">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4000</v>
+      </c>
+      <c r="C20">
+        <v>113</v>
+      </c>
+      <c r="D20">
+        <v>105</v>
+      </c>
+      <c r="E20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>116</v>
+      </c>
+      <c r="D21">
+        <v>105</v>
+      </c>
+      <c r="E21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>101</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>102</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>103</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>104</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>105</v>
       </c>
-      <c r="C27">
+      <c r="C30">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>106</v>
       </c>
-      <c r="C28">
+      <c r="C31">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>107</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>108</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>109</v>
-      </c>
-      <c r="C31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>110</v>
-      </c>
-      <c r="C32">
-        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>116</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
+      <c r="B42">
+        <v>117</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C43">
-        <v>1001</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="C44">
-        <v>1000</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>1000</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>1001</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>1001</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>1000</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>42</v>
+      <c r="D48" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>1000</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>1001</v>
       </c>
-      <c r="D50" t="s">
-        <v>44</v>
+      <c r="D50" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>1001</v>
       </c>
-      <c r="D51" t="s">
-        <v>46</v>
+      <c r="D51" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>1000</v>
       </c>
-      <c r="D52" t="s">
-        <v>51</v>
+      <c r="D52" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>1001</v>
-      </c>
-      <c r="D53" t="s">
-        <v>54</v>
+        <v>1000</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>1001</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>1001</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>1001</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>1001</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>1001</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>1001</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>1001</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>1001</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>1001</v>
+      </c>
+      <c r="D67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>1001</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69">
         <v>23</v>
       </c>
-      <c r="C65">
+      <c r="C69">
         <v>1000</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D69" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>1001</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0C792E-A9E2-4B1C-B7B9-9942C649A20E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2D5ED-B4F7-43DE-969F-242C6CB51FD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>어서오거라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브퀘스트를줄께</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -839,7 +851,51 @@
       <c r="I5" s="1"/>
       <c r="M5" s="1"/>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>6000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>7000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="M7" s="1"/>
     </row>
@@ -949,7 +1005,7 @@
         <v>2006</v>
       </c>
       <c r="C15">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15">
         <v>105</v>
@@ -963,7 +1019,7 @@
         <v>2007</v>
       </c>
       <c r="C16">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16">
         <v>105</v>
@@ -977,7 +1033,7 @@
         <v>2008</v>
       </c>
       <c r="C17">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17">
         <v>105</v>
@@ -991,7 +1047,7 @@
         <v>2009</v>
       </c>
       <c r="C18">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18">
         <v>105</v>
@@ -1042,6 +1098,34 @@
         <v>103</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>6000</v>
+      </c>
+      <c r="C22">
+        <v>116</v>
+      </c>
+      <c r="D22">
+        <v>105</v>
+      </c>
+      <c r="E22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>7000</v>
+      </c>
+      <c r="C23">
+        <v>116</v>
+      </c>
+      <c r="D23">
+        <v>105</v>
+      </c>
+      <c r="E23">
+        <v>103</v>
+      </c>
+    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
@@ -1154,7 +1238,7 @@
         <v>113</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,6 +1565,17 @@
       </c>
       <c r="D70" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>1001</v>
+      </c>
+      <c r="D71" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Downloads\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2D5ED-B4F7-43DE-969F-242C6CB51FD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB8FFF-EC95-4356-AB34-DF4E37ED9DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="780" yWindow="1905" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC_1 상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC_2 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +267,10 @@
   </si>
   <si>
     <t>서브퀘스트를줄께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸조심 잘하도록 해라.. 도와주지 못해 미안하구나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,16 +779,16 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -856,16 +856,16 @@
         <v>6000</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -879,16 +879,16 @@
         <v>7000</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>119</v>
       </c>
       <c r="E9">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -935,7 +935,7 @@
         <v>2001</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>105</v>
@@ -949,7 +949,7 @@
         <v>2002</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11">
         <v>105</v>
@@ -963,7 +963,7 @@
         <v>2003</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12">
         <v>105</v>
@@ -977,10 +977,10 @@
         <v>2004</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E13">
         <v>103</v>
@@ -994,7 +994,7 @@
         <v>110</v>
       </c>
       <c r="D14">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>103</v>
@@ -1005,10 +1005,10 @@
         <v>2006</v>
       </c>
       <c r="C15">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>103</v>
@@ -1019,10 +1019,10 @@
         <v>2007</v>
       </c>
       <c r="C16">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E16">
         <v>103</v>
@@ -1033,10 +1033,10 @@
         <v>2008</v>
       </c>
       <c r="C17">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>103</v>
@@ -1142,7 +1142,7 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1158,7 +1158,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1166,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1311,7 +1311,7 @@
         <v>1001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
         <v>1001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>1000</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>1000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>1001</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
         <v>1001</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,7 @@
         <v>1001</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>1001</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>1001</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
         <v>1001</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -1520,7 +1520,7 @@
         <v>1001</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>1001</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -1542,7 +1542,7 @@
         <v>1001</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>1000</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>1001</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>1001</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB8FFF-EC95-4356-AB34-DF4E37ED9DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90966BF9-9E32-4BCE-9AA3-0578BD931356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1905" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="75" yWindow="2895" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC_3 상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC_3 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +267,10 @@
   </si>
   <si>
     <t>몸조심 잘하도록 해라.. 도와주지 못해 미안하구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승의 친구분이 말한 일기인것 같다. 읽어보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +692,7 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,16 +779,16 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -856,16 +856,16 @@
         <v>6000</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -879,16 +879,16 @@
         <v>7000</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1120,10 +1120,10 @@
         <v>116</v>
       </c>
       <c r="D23">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E23">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1158,7 +1158,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1166,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1311,7 +1311,7 @@
         <v>1001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
         <v>1001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>1000</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>1000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>1001</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -1517,10 +1517,10 @@
         <v>20</v>
       </c>
       <c r="C66">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>1001</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -1542,7 +1542,7 @@
         <v>1001</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>1000</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>1001</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>1001</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90966BF9-9E32-4BCE-9AA3-0578BD931356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F986A-6CFE-455F-99CA-625F0A67D841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="2895" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="14835" yWindow="2625" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>왔구나, 지금부터 모험을 시작하자, 우선 방향키를 사용해 움직여보렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>잘 했다. 제자야, 외부 훈련을 마치고 나니 네가 더욱 강해진 것 같구나. 하지만 이제부터가 진정한 수련이다.네가 해야할 일이 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +267,10 @@
   </si>
   <si>
     <t>스승의 친구분이 말한 일기인것 같다. 읽어보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련은 잘 되어가고있니? 충분히 강해진것 같다면 다시 내게 말을 걸어주렴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,16 +779,16 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -856,16 +856,16 @@
         <v>6000</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -879,16 +879,16 @@
         <v>7000</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>119</v>
       </c>
       <c r="D9">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>102</v>
@@ -1142,7 +1142,7 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1166,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>1</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
         <v>1001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>1001</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -1520,7 +1520,7 @@
         <v>1000</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>1000</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>1001</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>1001</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F986A-6CFE-455F-99CA-625F0A67D841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87DA4DF-2D6A-4A3E-B2BC-8CF9F8C23B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="2625" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="16785" yWindow="1875" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,18 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC_1 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_1 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_2 상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC_3 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +260,19 @@
   <si>
     <t>훈련은 잘 되어가고있니? 충분히 강해진것 같다면 다시 내게 말을 걸어주렴</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,16,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님, 친구분은 돌아가셨습니다. 그리고 왕가의 비밀을 알아냈어요.</t>
+  </si>
+  <si>
+    <t>왕을 막아야겠어요. 이 일을 할 수 있는건 저뿐입니다.</t>
+  </si>
+  <si>
+    <t>너가 비밀을 알게 된 날이 왔구나, 난 마을을 지켜야해, 도와주지 못해 미안하다.</t>
   </si>
 </sst>
 </file>
@@ -691,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,16 +780,16 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -856,16 +857,16 @@
         <v>6000</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -879,16 +880,16 @@
         <v>7000</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1142,7 +1143,7 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,7 +1151,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1158,7 +1159,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1167,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1213,8 +1214,8 @@
       <c r="B35">
         <v>110</v>
       </c>
-      <c r="C35">
-        <v>14</v>
+      <c r="C35" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,7 +1312,7 @@
         <v>1001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1344,7 +1345,7 @@
         <v>1001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1366,7 +1367,7 @@
         <v>1000</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1377,7 +1378,7 @@
         <v>1000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1388,7 +1389,7 @@
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1399,7 +1400,7 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1410,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1421,7 +1422,7 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1432,7 +1433,7 @@
         <v>1001</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1454,7 +1455,7 @@
         <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -1465,7 +1466,7 @@
         <v>1001</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -1476,7 +1477,7 @@
         <v>1001</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -1487,7 +1488,7 @@
         <v>1001</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -1520,7 +1521,7 @@
         <v>1000</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -1531,7 +1532,7 @@
         <v>1001</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -1542,7 +1543,7 @@
         <v>1001</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -1553,7 +1554,7 @@
         <v>1000</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1565,7 @@
         <v>1001</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -1575,7 +1576,7 @@
         <v>1001</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87DA4DF-2D6A-4A3E-B2BC-8CF9F8C23B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65072A22-D51E-4EDF-9A38-4FE8CC03204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16785" yWindow="1875" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC_2 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC_2 하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +269,10 @@
   </si>
   <si>
     <t>너가 비밀을 알게 된 날이 왔구나, 난 마을을 지켜야해, 도와주지 못해 미안하다.</t>
+  </si>
+  <si>
+    <t>내 친구의 집은 포탈3으로 가면 찾을 수 있단다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,16 +780,16 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>6000</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -880,16 +880,16 @@
         <v>7000</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1159,7 +1159,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,7 +1312,7 @@
         <v>1001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1345,7 +1345,7 @@
         <v>1001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>1000</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>1000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>1001</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1400,7 +1400,7 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>1001</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>1001</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
         <v>1001</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -1488,7 +1488,7 @@
         <v>1001</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
         <v>1001</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -1510,7 +1510,7 @@
         <v>1001</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -1521,7 +1521,7 @@
         <v>1000</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>1001</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>1001</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>1000</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -1565,7 +1565,7 @@
         <v>1001</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -1576,7 +1576,7 @@
         <v>1001</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65072A22-D51E-4EDF-9A38-4FE8CC03204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F510FD-C11B-4262-98F6-9B84AF0C4DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="1875" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="16185" yWindow="1485" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅇㅇ씨 맞으시죠, 괜찮으신가요? ㅇㅇ씨께 여쭈어보고싶은게 있어서 왔어요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어서오거라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +264,10 @@
   </si>
   <si>
     <t>내 친구의 집은 포탈3으로 가면 찾을 수 있단다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점을 이용하겠어?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,16 +776,16 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -857,16 +853,16 @@
         <v>6000</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -880,16 +876,16 @@
         <v>7000</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1142,8 +1138,8 @@
       <c r="B26">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
-        <v>43</v>
+      <c r="C26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1167,7 +1163,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1215,7 +1211,7 @@
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,7 +1308,7 @@
         <v>1001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1411,7 +1407,7 @@
         <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1422,7 +1418,7 @@
         <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1433,7 +1429,7 @@
         <v>1001</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1455,7 +1451,7 @@
         <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -1466,7 +1462,7 @@
         <v>1001</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -1477,7 +1473,7 @@
         <v>1001</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -1488,7 +1484,7 @@
         <v>1001</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -1499,7 +1495,7 @@
         <v>1001</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -1521,7 +1517,7 @@
         <v>1000</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -1565,7 +1561,7 @@
         <v>1001</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -1576,7 +1572,7 @@
         <v>1001</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpartaCamp\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F510FD-C11B-4262-98F6-9B84AF0C4DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A0528-8B16-4BB9-9095-459441FD8AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16185" yWindow="1485" windowWidth="21615" windowHeight="15435" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,175 +99,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스승님, 이제 분부하신 훈련을 마쳤습니다.</t>
+    <t>#questTable[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#talkTable[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialog[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scriptId[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#dialogTable[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트3 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_2 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_3 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_3 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님, 무지르고 돌아왔습니다.(드랍아이템을 보여줌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 녀석이 이 물건을 들고 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 잘 모르는 물건이구나..이 물건에 대해 알만한 녀석을 하나 알지. ㅇㅇㅇ으로 가보렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 부탁한 임무는 아직이니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇ씨 맞으시죠, 괜찮으신가요? ㅇㅇ씨께 여쭈어보고싶은게 있어서 왔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승의 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언젠간 네가 찾아올 줄 알았지. 그건 [왕가이름] 왕가의 인장이란다.(쿨럭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아…내게 남은 시간이 얼마 남지 않은 것 같으니 이 일기를 확인해보렴(죽음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브퀘스트를줄께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸조심 잘하도록 해라.. 도와주지 못해 미안하구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승의 친구분이 말한 일기인것 같다. 읽어보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,16,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님, 친구분은 돌아가셨습니다. 그리고 왕가의 비밀을 알아냈어요.</t>
+  </si>
+  <si>
+    <t>왕을 막아야겠어요. 이 일을 할 수 있는건 저뿐입니다.</t>
+  </si>
+  <si>
+    <t>너가 비밀을 알게 된 날이 왔구나, 난 마을을 지켜야해, 도와주지 못해 미안하다.</t>
+  </si>
+  <si>
+    <t>내 친구의 집은 포탈3으로 가면 찾을 수 있단다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점을 이용하겠어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련은 잘 되어가고있니?\n충분히 강해진것 같다면 다시 내게 말을 걸어주렴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;스승님. 분부하신 훈련을 모두 마쳤습니다.&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무슨 일이 있는 건가요?</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중간 보스가 마을을 망치고 있으니 무찌르고 와라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#questTable[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#talkTable[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialog[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scriptId[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#dialogTable[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트3 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_2 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_3 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_3 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승님, 무지르고 돌아왔습니다.(드랍아이템을 보여줌)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 녀석이 이 물건을 들고 있었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 잘 모르는 물건이구나..이 물건에 대해 알만한 녀석을 하나 알지. ㅇㅇㅇ으로 가보렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 부탁한 임무는 아직이니?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘 했다. 제자야, 외부 훈련을 마치고 나니 네가 더욱 강해진 것 같구나. 하지만 이제부터가 진정한 수련이다.네가 해야할 일이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 알겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅇ씨 맞으시죠, 괜찮으신가요? ㅇㅇ씨께 여쭈어보고싶은게 있어서 왔어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승의 친구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언젠간 네가 찾아올 줄 알았지. 그건 [왕가이름] 왕가의 인장이란다.(쿨럭)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하아…내게 남은 시간이 얼마 남지 않은 것 같으니 이 일기를 확인해보렴(죽음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브퀘스트를줄께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸조심 잘하도록 해라.. 도와주지 못해 미안하구나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승의 친구분이 말한 일기인것 같다. 읽어보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련은 잘 되어가고있니? 충분히 강해진것 같다면 다시 내게 말을 걸어주렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,16,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승님, 친구분은 돌아가셨습니다. 그리고 왕가의 비밀을 알아냈어요.</t>
-  </si>
-  <si>
-    <t>왕을 막아야겠어요. 이 일을 할 수 있는건 저뿐입니다.</t>
-  </si>
-  <si>
-    <t>너가 비밀을 알게 된 날이 왔구나, 난 마을을 지켜야해, 도와주지 못해 미안하다.</t>
-  </si>
-  <si>
-    <t>내 친구의 집은 포탈3으로 가면 찾을 수 있단다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점을 이용하겠어?</t>
+  </si>
+  <si>
+    <t>훌륭하구나. 그동안 수련한 보람이 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 이제부터가 진정한 수련이다.\n네가 해야할 일이 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -776,16 +779,16 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -853,16 +856,16 @@
         <v>6000</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -876,16 +879,16 @@
         <v>7000</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -898,19 +901,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1125,13 +1128,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1147,7 +1150,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1155,7 +1158,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1163,7 +1166,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,7 +1214,7 @@
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,16 +1291,16 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1308,7 +1311,7 @@
         <v>1001</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1319,7 +1322,7 @@
         <v>1000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -1330,7 +1333,7 @@
         <v>1000</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1341,7 +1344,7 @@
         <v>1001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -1352,7 +1355,7 @@
         <v>1001</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -1360,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="C52">
-        <v>1000</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>36</v>
+        <v>1001</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -1374,7 +1377,7 @@
         <v>1000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -1382,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="C54">
-        <v>1001</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
+        <v>1000</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -1396,7 +1399,7 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1404,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -1415,10 +1418,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1429,7 +1432,7 @@
         <v>1001</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -1440,7 +1443,7 @@
         <v>1001</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -1451,7 +1454,7 @@
         <v>1001</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -1462,7 +1465,7 @@
         <v>1001</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -1473,7 +1476,7 @@
         <v>1001</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -1484,7 +1487,7 @@
         <v>1001</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -1495,7 +1498,7 @@
         <v>1001</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -1506,7 +1509,7 @@
         <v>1001</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -1514,10 +1517,10 @@
         <v>20</v>
       </c>
       <c r="C66">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -1525,10 +1528,10 @@
         <v>21</v>
       </c>
       <c r="C67">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -1539,7 +1542,7 @@
         <v>1001</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -1547,10 +1550,10 @@
         <v>23</v>
       </c>
       <c r="C69">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -1558,10 +1561,10 @@
         <v>24</v>
       </c>
       <c r="C70">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -1572,7 +1575,15 @@
         <v>1001</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>1001</v>
+      </c>
+      <c r="D72" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpartaCamp\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A0528-8B16-4BB9-9095-459441FD8AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A98E0C0-29DD-44C4-8547-A0C0F1C0395E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,50 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트3 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_2 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_3 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_3 하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승님, 무지르고 돌아왔습니다.(드랍아이템을 보여줌)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 녀석이 이 물건을 들고 있었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 잘 모르는 물건이구나..이 물건에 대해 알만한 녀석을 하나 알지. ㅇㅇㅇ으로 가보렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6,7,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내가 부탁한 임무는 아직이니?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 알겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅇ씨 맞으시죠, 괜찮으신가요? ㅇㅇ씨께 여쭈어보고싶은게 있어서 왔어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스승의 친구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언젠간 네가 찾아올 줄 알았지. 그건 [왕가이름] 왕가의 인장이란다.(쿨럭)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하아…내게 남은 시간이 얼마 남지 않은 것 같으니 이 일기를 확인해보렴(죽음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10,11,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,62 +178,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서브퀘스트를줄께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸조심 잘하도록 해라.. 도와주지 못해 미안하구나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승의 친구분이 말한 일기인것 같다. 읽어보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15,16,17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스승님, 친구분은 돌아가셨습니다. 그리고 왕가의 비밀을 알아냈어요.</t>
-  </si>
-  <si>
-    <t>왕을 막아야겠어요. 이 일을 할 수 있는건 저뿐입니다.</t>
-  </si>
-  <si>
-    <t>너가 비밀을 알게 된 날이 왔구나, 난 마을을 지켜야해, 도와주지 못해 미안하다.</t>
-  </si>
-  <si>
-    <t>내 친구의 집은 포탈3으로 가면 찾을 수 있단다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점을 이용하겠어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련은 잘 되어가고있니?\n충분히 강해진것 같다면 다시 내게 말을 걸어주렴.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#6C00D9&gt;스승님. 분부하신 훈련을 모두 마쳤습니다.&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무슨 일이 있는 건가요?</t>
-  </si>
-  <si>
     <t>2,3,4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중간 보스가 마을을 망치고 있으니 무찌르고 와라</t>
-  </si>
-  <si>
     <t>훌륭하구나. 그동안 수련한 보람이 있어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 이제부터가 진정한 수련이다.\n네가 해야할 일이 있다.</t>
+    <t>훈련은 잘 되어가고 있니?\n충분히 강해진 것 같다면 다시 내게 말을 걸어주렴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;…&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;예. 다녀오겠습니다.&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 이제부터가 진정한 수련이다.\n네가 해야 할 일이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처 &lt;color=#6C00D9&gt;보라 마을&lt;/color&gt;에 흉악한 몬스터가 하나 나타났다고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니 네가 가서 돕도록 해라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 몬스터를 무찌르지 못했구나.\n&lt;color=#6C00D9&gt;보라 마을&lt;/color&gt;은 너의 도움이 필요해. 서두르렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;스승님. 다녀왔습니다.&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;몬스터 녀석이 이 인장을 가지고 있더군요.&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 나도 잘 모르는 물건이구나…\n꽤 귀해보이는데 말이지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;예. 스승님.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#A60030&gt;디트리히 경&lt;/color&gt;의 집은 &lt;color=#007AE5&gt;시간의 마을&lt;/color&gt;로 가면 찾을 수 있단다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;!!!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;디트리히 경! 디트리히 경 맞으십니까?&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;피… 피가!!!&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(쿨럭) 언젠간 당신이 찾아올 줄 알았습니다…\n이미 &lt;color=#6C00D9&gt;크로메&lt;/color&gt; 왕가의 인장도 들고 계시군요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;이게…왕가의 인장?&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(쿨럭) 제게 신이 허락한 시간이, 하아- (쿨럭)\n얼마 남지 않은 것 같습니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부디 정의의 여신이 당신의 편이길….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;스승님…\n(디트리히 경의 검을 건넨다.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;디트리히 경은 돌아가셨습니다...&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;그러니 저는 왕을 막아야겠습니다.\n디트리히 경이 남겨주신 왕의 비밀을 세상에 알려야합니다.&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;저만이 할 수 있는 일입니다.&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">난 눈이 하나 달린 눈알 몬스터가 정말 싫어!\n눈알 몬스터를 좀 잡아줘! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕~ 뭐 좀 살래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의의 여신이 너의 편이길.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 사람들은 이미 많이 다친 모양이다.\n왕은 변방의 마을이라는 이유로 신경도 쓰지 않는 모양이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신 알만한 녀석을 하나 알지. \n&lt;color=#007AE5&gt;시간의 마을&lt;/color&gt;로 가보렴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#A60030&gt;디트리히&lt;/color&gt;녀석이라면 네게 답을 줄 수 있을 거다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언젠가는 이런 날이 올 줄 알았지.\n다녀와라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금하셨을 이야기는 (쿨럭)\n제 일기에 대부분 남겨뒀습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#6C00D9&gt;스승님. 오늘의 훈련도 모두 마쳤습니다.&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수고했다. 이제 네가 훈련장에서 할만한 훈련은 모두 마친듯 하구나.\n너에게 새로운 것을 알려주마.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;키보드 A, S, D&lt;/color&gt;을 누르면 스킬을 사용할 수 있어.\n스킬로 주변에서 슬라임을 3마리만 물리치고 오렴.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +365,45 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -333,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,6 +440,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,16 +881,16 @@
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -856,16 +958,16 @@
         <v>6000</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -879,16 +981,16 @@
         <v>7000</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1150,7 +1252,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1158,7 +1260,7 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1268,7 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>108</v>
       </c>
@@ -1201,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>109</v>
       </c>
@@ -1209,15 +1311,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>111</v>
       </c>
@@ -1225,7 +1327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>112</v>
       </c>
@@ -1233,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>113</v>
       </c>
@@ -1241,7 +1343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>114</v>
       </c>
@@ -1249,7 +1351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>115</v>
       </c>
@@ -1257,7 +1359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>116</v>
       </c>
@@ -1265,7 +1367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>117</v>
       </c>
@@ -1273,7 +1375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>118</v>
       </c>
@@ -1281,7 +1383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>119</v>
       </c>
@@ -1289,7 +1391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1303,95 +1405,103 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1001</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>1000</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>1000</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>4</v>
       </c>
       <c r="C50">
         <v>1001</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51">
-        <v>1001</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>1001</v>
-      </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>7</v>
       </c>
       <c r="C53">
-        <v>1000</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
         <v>1000</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>9</v>
       </c>
@@ -1399,10 +1509,11 @@
         <v>1001</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>10</v>
       </c>
@@ -1410,32 +1521,35 @@
         <v>1001</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>11</v>
       </c>
       <c r="C57">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>12</v>
       </c>
       <c r="C58">
-        <v>1001</v>
-      </c>
-      <c r="D58" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>13</v>
       </c>
@@ -1443,43 +1557,47 @@
         <v>1001</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>14</v>
       </c>
       <c r="C60">
-        <v>1001</v>
-      </c>
-      <c r="D60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>15</v>
       </c>
       <c r="C61">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>16</v>
       </c>
       <c r="C62">
         <v>1001</v>
       </c>
-      <c r="D62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>17</v>
       </c>
@@ -1487,87 +1605,95 @@
         <v>1001</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>18</v>
       </c>
       <c r="C64">
         <v>1001</v>
       </c>
-      <c r="D64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>19</v>
       </c>
       <c r="C65">
-        <v>1001</v>
-      </c>
-      <c r="D65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>20</v>
       </c>
       <c r="C66">
         <v>1001</v>
       </c>
-      <c r="D66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>21</v>
       </c>
       <c r="C67">
         <v>1000</v>
       </c>
-      <c r="D67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>22</v>
       </c>
       <c r="C68">
-        <v>1001</v>
-      </c>
-      <c r="D68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>23</v>
       </c>
       <c r="C69">
-        <v>1001</v>
-      </c>
-      <c r="D69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>24</v>
       </c>
       <c r="C70">
-        <v>1000</v>
-      </c>
-      <c r="D70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>25</v>
       </c>
@@ -1577,14 +1703,140 @@
       <c r="D71" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>26</v>
+      </c>
       <c r="C72">
         <v>1001</v>
       </c>
-      <c r="D72" t="s">
-        <v>47</v>
-      </c>
+      <c r="D72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>27</v>
+      </c>
+      <c r="C73">
+        <v>1001</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>28</v>
+      </c>
+      <c r="C74">
+        <v>1001</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>29</v>
+      </c>
+      <c r="C75">
+        <v>1000</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>1000</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>31</v>
+      </c>
+      <c r="C77">
+        <v>1000</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>32</v>
+      </c>
+      <c r="C78">
+        <v>1000</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>33</v>
+      </c>
+      <c r="C79">
+        <v>1001</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>34</v>
+      </c>
+      <c r="C80">
+        <v>1001</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <v>1001</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>36</v>
+      </c>
+      <c r="C82">
+        <v>1001</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/RawData/NPCData.xlsx
+++ b/Assets/RawData/NPCData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpartaCamp\GemChronicle\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\GemChronicle\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A98E0C0-29DD-44C4-8547-A0C0F1C0395E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55353272-AECB-492C-AC1C-43A39E6FAA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E444E44B-44D5-466B-A663-065746DE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EB885-49EF-4BCC-BECD-5F5F5C235B1C}">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
